--- a/data/trans_bre/P19_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P19_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,57%</t>
+          <t>-1,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-16,14%</t>
+          <t>-7,01%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8,96%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 5,49</t>
+          <t>-7,36; 16,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 7,31</t>
+          <t>-10,7; 7,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 11,77</t>
+          <t>-13,88; 2,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 3,47</t>
+          <t>-3,0; 24,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-33,01; 28,48</t>
+          <t>-7,03; 9,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 52,09</t>
+          <t>-8,92; 24,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 92,87</t>
+          <t>-12,22; 9,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,16; 28,5</t>
+          <t>-15,52; 2,58</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 42,03</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 11,17</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>-10,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,62%</t>
+          <t>-12,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>-3,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>-4,61%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-4,25%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-6,47%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 11,3</t>
+          <t>-19,87; -2,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 4,44</t>
+          <t>-11,97; 5,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 8,71</t>
+          <t>-11,73; 4,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 11,71</t>
+          <t>-11,49; 5,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 103,06</t>
+          <t>-13,84; 2,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,28; 29,27</t>
+          <t>-21,48; -2,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 97,75</t>
+          <t>-13,85; 6,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 148,53</t>
+          <t>-13,01; 5,3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-12,53; 7,21</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-14,41; 3,05</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,36</t>
+          <t>-33,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,35</t>
+          <t>-22,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,32</t>
+          <t>13,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>179,47%</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>-33,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>126,06%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-33,35%</t>
+          <t>-24,84%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20,48%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,16; 31,89</t>
+          <t>-51,38; -18,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 14,99</t>
+          <t>-16,22; 25,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 27,81</t>
+          <t>-42,57; -6,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,02; 7,31</t>
+          <t>-15,24; 55,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,04; 822,58</t>
+          <t>-13,65; 17,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,04; 212,69</t>
+          <t>-51,38; -18,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 502,19</t>
+          <t>-18,05; 41,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-81,03; 51,98</t>
+          <t>-44,55; -7,38</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-17,87; 184,87</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-14,42; 23,2</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>-7,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>-8,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>38,74%</t>
+          <t>-1,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,41%</t>
+          <t>-7,96%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-1,9%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 7,63</t>
+          <t>-13,05; 1,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 4,51</t>
+          <t>-7,5; 4,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 9,46</t>
+          <t>-12,15; -1,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 4,33</t>
+          <t>-3,98; 13,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 47,06</t>
+          <t>-7,01; 3,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 29,34</t>
+          <t>-15,04; 1,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 80,66</t>
+          <t>-8,75; 6,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,78; 33,19</t>
+          <t>-13,67; -1,64</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 19,11</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-7,62; 4,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P19_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P19_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,1</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,97</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,97</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,72%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-1,35%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-7,01%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>8,96%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.324204625403347</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.866346437552781</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.689408249329654</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.180484203094238</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.6451141430681928</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.01715454247500644</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.0468117862624289</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.07829843095947511</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.07916006364101991</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.007557834263515809</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,36; 16,49</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,7; 7,2</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-13,88; 2,01</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 24,96</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-7,03; 9,1</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-8,92; 24,37</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-12,22; 9,46</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-15,52; 2,58</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 42,03</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-7,57; 11,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.358675579107075</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-13.569084212976</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-14.48002320711632</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.909955163577533</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-8.953457522546531</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.08923081085401245</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.156536117183211</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1619727284186726</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.04594891464255491</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1025407603729185</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.48831215803848</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.518764059230919</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.221034782644415</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>22.877119753438</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>9.437259827527152</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.2436542931328949</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.05773890364912503</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.01759914682880247</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.3799971500960075</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.1160928685705006</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-10,9</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,99</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,72</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-5,94</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-12,2%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-3,57%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-4,61%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-4,25%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-6,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-19,87; -2,33</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,97; 5,43</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,73; 4,29</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,49; 5,99</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-13,84; 2,62</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-21,48; -2,73</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-13,85; 6,88</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-13,01; 5,3</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-12,53; 7,21</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-14,41; 3,05</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-10.89507855938896</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.5263611282481651</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-3.275647435069973</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.499775571066321</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-6.311770478657197</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.122026314039765</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.006555699467389922</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.03776936588119809</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.02860177631204876</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.06852904023138044</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-33,41</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,58</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-22,74</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>13,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-33,41%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>5,79%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-24,84%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>20,48%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,56%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-19.86855005046627</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-10.44661593509633</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-11.6312322970142</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-10.18911178534417</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-13.82778759305954</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2147712770006553</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1198131107824342</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1300962764296787</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1127061253663961</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1455072512646304</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-51,38; -18,41</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,22; 25,59</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-42,57; -6,67</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-15,24; 55,18</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-13,65; 17,69</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-51,38; -18,41</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-18,05; 41,1</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-44,55; -7,38</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-17,87; 184,87</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-14,42; 23,2</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-2.325998300562006</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.32985995160583</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.002704956414758</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.557613934839799</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.903525699627287</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.02732553029617276</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1546035780659077</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.06016400655371158</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.07847361504975231</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.02117616765147603</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-7,0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,26</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-6,89</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,28</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-8,3%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-1,54%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-7,96%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>4,09%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-1,9%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-33.40617303334442</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.181261732102259</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-24.72023524527047</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>12.7903021887774</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.220614034895806</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.3340617303334442</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.05262588457456015</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2705035816502297</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1959602522864985</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.01374129029275297</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-13,05; 1,43</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,5; 4,79</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-12,15; -1,28</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,98; 13,64</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-7,01; 3,52</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-15,04; 1,48</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-8,75; 6,11</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-13,67; -1,64</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 19,11</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 4,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-51.38079747166754</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.35561418653075</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-44.97994502783222</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-14.44857688529469</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-13.93519297343497</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.5138079747166754</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1917063033005855</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4722066580985685</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1707548057267952</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.1435782333473593</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-18.41150386773986</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>24.37155061333636</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-8.193038082276415</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>54.52523790463309</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>18.55443749122779</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-0.1841150386773986</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3729609889618003</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.09308244652799477</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.741383546070732</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.249162137120466</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-7.000938908972321</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.225271135325423</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-7.195966895363803</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.222719179035716</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-2.246976403665091</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.0830052066896757</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.01507133086615103</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.08308152346104851</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.0399570343558573</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.02536217941652534</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-13.04920436725131</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.510660507350597</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-12.47315691655762</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.739300503485036</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-8.078327225513181</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1504197397697887</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.08857607824227921</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1410127778561359</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.04340240811562947</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.08977733945381246</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.426542714265194</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.411087971999915</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-1.6090556613034</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.81735698617376</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.069535894312585</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.01483786361148156</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.06976709103272803</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.0194250146794576</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1770039177979775</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.03553622195307212</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1113,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
